--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_41.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_41.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1440"/>
+  <dimension ref="A1:N1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.505383968353271</v>
+        <v>0.001506805419921875</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06548881530761719</v>
+        <v>0.0008170604705810547</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07025504112243652</v>
+        <v>0.07953882217407227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 1), (5, 2), (3, 3), (6, 3), (4, 2), (5, 1), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (2, 6), (2, 0), (2, 2), (4, 5), (1, 4), (3, 4), (2, 5), (0, 4), (0, 6), (5, 4), (3, 2), (6, 6), (4, 6), (5, 3), (6, 5), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 0], [4, 1], [5, 2], [3, 3], [6, 3], [4, 2], [5, 1], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [2, 6], [2, 0], [2, 2], [4, 5], [1, 4], [3, 4], [2, 5], [0, 4], [0, 6], [5, 4], [3, 2], [6, 6], [4, 6], [5, 3], [6, 5], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 1), (6, 3), (3, 3), (5, 5), (4, 2), (5, 1), (6, 4), (4, 4), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (6, 1), (0, 5), (1, 4), (2, 3), (2, 6), (0, 0), (2, 5), (4, 5), (3, 4), (0, 4), (4, 6), (0, 6), (5, 0), (5, 4), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[5, 2], [4, 1], [6, 3], [3, 3], [5, 5], [4, 2], [5, 1], [6, 4], [4, 4], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [6, 1], [0, 5], [1, 4], [2, 3], [2, 6], [0, 0], [2, 5], [4, 5], [3, 4], [0, 4], [4, 6], [0, 6], [5, 0], [5, 4], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 1), (6, 3), (3, 3), (5, 5), (4, 2), (5, 1), (6, 4), (4, 4), (5, 6), (3, 5), (2, 3), (4, 0), (2, 0), (6, 1), (2, 1), (2, 2), (4, 3), (4, 6), (3, 0), (3, 4), (4, 5), (3, 2), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[5, 2], [4, 1], [6, 3], [3, 3], [5, 5], [4, 2], [5, 1], [6, 4], [4, 4], [5, 6], [3, 5], [2, 3], [4, 0], [2, 0], [6, 1], [2, 1], [2, 2], [4, 3], [4, 6], [3, 0], [3, 4], [4, 5], [3, 2], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 1), (6, 3), (4, 2), (1, 5), (6, 4), (5, 1), (3, 6), (0, 6), (0, 5), (3, 1), (2, 0), (4, 0), (3, 0), (6, 1), (0, 3), (1, 4), (0, 4), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[5, 2], [4, 1], [6, 3], [4, 2], [1, 5], [6, 4], [5, 1], [3, 6], [0, 6], [0, 5], [3, 1], [2, 0], [4, 0], [3, 0], [6, 1], [0, 3], [1, 4], [0, 4], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 1), (6, 3), (4, 2), (3, 2), (6, 4), (5, 1), (1, 6), (0, 6), (3, 3), (3, 1), (3, 0), (4, 0), (5, 0), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[5, 2], [4, 1], [6, 3], [4, 2], [3, 2], [6, 4], [5, 1], [1, 6], [0, 6], [3, 3], [3, 1], [3, 0], [4, 0], [5, 0], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 1), (3, 0), (4, 2), (3, 2), (5, 3), (5, 1), (1, 6), (0, 6), (3, 3), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[5, 2], [4, 1], [3, 0], [4, 2], [3, 2], [5, 3], [5, 1], [1, 6], [0, 6], [3, 3], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4770,7 +4770,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 1), (3, 0), (3, 3), (3, 2), (4, 3), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[5, 2], [4, 1], [3, 0], [3, 3], [3, 2], [4, 3], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[(4, 1), (0, 6), (3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[4, 1], [0, 6], [3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1)]</t>
+          <t>[[3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (4, 1), (3, 1), (5, 0), (3, 0)]</t>
+          <t>[[5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [4, 1], [3, 1], [5, 0], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>[(6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (6, 6), (4, 2), (4, 3), (3, 2), (4, 1), (3, 1), (5, 0), (3, 0)]</t>
+          <t>[[6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [6, 6], [4, 2], [4, 3], [3, 2], [4, 1], [3, 1], [5, 0], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -10276,7 +10276,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>[(5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (3, 3), (5, 3), (6, 2), (6, 4), (4, 2), (4, 3), (3, 2), (4, 1), (3, 1), (5, 0), (3, 0)]</t>
+          <t>[[5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [3, 3], [5, 3], [6, 2], [6, 4], [4, 2], [4, 3], [3, 2], [4, 1], [3, 1], [5, 0], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -11164,7 +11164,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (3, 3), (5, 0), (5, 4), (6, 5), (6, 6), (3, 1), (5, 3), (6, 2), (6, 4), (4, 2), (4, 3), (3, 2), (4, 1), (3, 0), (4, 0), (5, 1)]</t>
+          <t>[[4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [3, 3], [5, 0], [5, 4], [6, 5], [6, 6], [3, 1], [5, 3], [6, 2], [6, 4], [4, 2], [4, 3], [3, 2], [4, 1], [3, 0], [4, 0], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>[(2, 5), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 5), (3, 4), (4, 5), (4, 6), (3, 3), (5, 0), (5, 4), (6, 5), (6, 6), (3, 1), (5, 3), (6, 2), (6, 4), (4, 2), (4, 3), (3, 2), (4, 1), (3, 0), (4, 0), (5, 1)]</t>
+          <t>[[2, 5], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 5], [3, 4], [4, 5], [4, 6], [3, 3], [5, 0], [5, 4], [6, 5], [6, 6], [3, 1], [5, 3], [6, 2], [6, 4], [4, 2], [4, 3], [3, 2], [4, 1], [3, 0], [4, 0], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -12679,7 +12679,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>[(6, 3), (6, 2), (5, 1), (4, 1), (3, 2), (2, 2), (1, 1), (0, 1), (0, 2), (1, 2), (2, 1), (3, 1), (4, 2), (5, 2), (6, 1), (5, 3), (6, 4), (4, 3), (0, 3), (0, 0), (1, 6), (1, 0), (0, 4), (2, 3), (4, 4), (3, 3), (5, 0), (5, 4), (6, 5), (6, 6), (2, 0), (0, 5), (1, 5), (5, 5), (4, 0), (1, 3), (3, 0), (3, 4), (6, 0), (1, 4), (2, 4)]</t>
+          <t>[[6, 3], [6, 2], [5, 1], [4, 1], [3, 2], [2, 2], [1, 1], [0, 1], [0, 2], [1, 2], [2, 1], [3, 1], [4, 2], [5, 2], [6, 1], [5, 3], [6, 4], [4, 3], [0, 3], [0, 0], [1, 6], [1, 0], [0, 4], [2, 3], [4, 4], [3, 3], [5, 0], [5, 4], [6, 5], [6, 6], [2, 0], [0, 5], [1, 5], [5, 5], [4, 0], [1, 3], [3, 0], [3, 4], [6, 0], [1, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13494,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1), (3, 0), (4, 0), (0, 6), (0, 4), (5, 3), (6, 4), (4, 3), (1, 4), (2, 3), (1, 6), (5, 0), (2, 4), (2, 5), (4, 4), (3, 4), (0, 5), (1, 5), (4, 1), (3, 2), (3, 3), (0, 0), (2, 6), (5, 5), (4, 2), (3, 5), (5, 1), (3, 6), (6, 0), (4, 5), (4, 6)]</t>
+          <t>[[2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1], [3, 0], [4, 0], [0, 6], [0, 4], [5, 3], [6, 4], [4, 3], [1, 4], [2, 3], [1, 6], [5, 0], [2, 4], [2, 5], [4, 4], [3, 4], [0, 5], [1, 5], [4, 1], [3, 2], [3, 3], [0, 0], [2, 6], [5, 5], [4, 2], [3, 5], [5, 1], [3, 6], [6, 0], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -14171,7 +14171,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 2), (1, 1), (1, 0), (0, 1), (2, 2), (2, 3), (2, 0), (0, 6), (0, 4), (3, 3), (4, 0), (4, 1), (1, 6), (2, 4), (5, 3), (6, 4), (4, 3), (2, 5), (3, 4), (2, 6), (5, 0), (3, 5), (3, 6), (4, 4), (4, 5), (4, 6), (5, 5), (4, 2), (5, 2), (5, 1), (0, 5), (1, 5), (0, 0), (0, 3), (1, 3), (0, 2), (3, 0), (3, 1), (1, 4), (3, 2)]</t>
+          <t>[[2, 1], [1, 2], [1, 1], [1, 0], [0, 1], [2, 2], [2, 3], [2, 0], [0, 6], [0, 4], [3, 3], [4, 0], [4, 1], [1, 6], [2, 4], [5, 3], [6, 4], [4, 3], [2, 5], [3, 4], [2, 6], [5, 0], [3, 5], [3, 6], [4, 4], [4, 5], [4, 6], [5, 5], [4, 2], [5, 2], [5, 1], [0, 5], [1, 5], [0, 0], [0, 3], [1, 3], [0, 2], [3, 0], [3, 1], [1, 4], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -14610,110 +14610,120 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1436" t="n">
-        <v>238</v>
+        <v>0.9847035931308955</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1437" t="n">
-        <v>1171</v>
+        <v>238</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1438" t="n">
-        <v>17</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1439" t="n">
-        <v>6.834372043609619</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1440" t="n">
+        <v>0.2726778984069824</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1440" t="inlineStr">
+      <c r="B1441" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1440" t="inlineStr">
+      <c r="C1441" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1440" t="inlineStr">
+      <c r="D1441" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1440" t="inlineStr">
+      <c r="E1441" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1440" t="inlineStr">
+      <c r="F1441" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1440" t="inlineStr">
+      <c r="G1441" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
+      <c r="H1441" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1440" t="inlineStr">
+      <c r="I1441" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1440" t="inlineStr">
+      <c r="J1441" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1440" t="inlineStr">
+      <c r="K1441" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1440" t="inlineStr">
+      <c r="L1441" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1440" t="inlineStr">
+      <c r="M1441" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1440" t="inlineStr">
+      <c r="N1441" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
